--- a/Multi-taxa_data/MollEchino/Ech_raw/Ech_div_MI.xlsx
+++ b/Multi-taxa_data/MollEchino/Ech_raw/Ech_div_MI.xlsx
@@ -1,23 +1,45 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\claud\Documents\COMUNE\STUDIO.LAVORO\IMBRSea\Thesis\StatAnalysis\Multi-taxa_data\MollEchino\Ech_raw\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{551D012F-17DA-4B5A-AB80-6050B3C99DB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="TOT" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="D1" sheetId="2" r:id="rId5"/>
-    <sheet state="visible" name="D2" sheetId="3" r:id="rId6"/>
-    <sheet state="visible" name="D3" sheetId="4" r:id="rId7"/>
-    <sheet state="visible" name="S1" sheetId="5" r:id="rId8"/>
-    <sheet state="visible" name="S2" sheetId="6" r:id="rId9"/>
-    <sheet state="visible" name="S3" sheetId="7" r:id="rId10"/>
+    <sheet name="TOT" sheetId="1" r:id="rId1"/>
+    <sheet name="D1" sheetId="2" r:id="rId2"/>
+    <sheet name="D2" sheetId="3" r:id="rId3"/>
+    <sheet name="D3" sheetId="4" r:id="rId4"/>
+    <sheet name="S1" sheetId="5" r:id="rId5"/>
+    <sheet name="S2" sheetId="6" r:id="rId6"/>
+    <sheet name="S3" sheetId="7" r:id="rId7"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1323" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3026" uniqueCount="390">
   <si>
     <t>transect</t>
   </si>
@@ -602,37 +624,631 @@
   </si>
   <si>
     <t>P5067694</t>
+  </si>
+  <si>
+    <t>JAAL</t>
+  </si>
+  <si>
+    <t>P5060254</t>
+  </si>
+  <si>
+    <t>P5060255</t>
+  </si>
+  <si>
+    <t>P5060256</t>
+  </si>
+  <si>
+    <t>P5060258</t>
+  </si>
+  <si>
+    <t>P5060260</t>
+  </si>
+  <si>
+    <t>P5060261</t>
+  </si>
+  <si>
+    <t>P5060262</t>
+  </si>
+  <si>
+    <t>P5060264</t>
+  </si>
+  <si>
+    <t>P5060265</t>
+  </si>
+  <si>
+    <t>P5060266</t>
+  </si>
+  <si>
+    <t>P5060270</t>
+  </si>
+  <si>
+    <t>MI_S2</t>
+  </si>
+  <si>
+    <t>P5060273</t>
+  </si>
+  <si>
+    <t>P5060276</t>
+  </si>
+  <si>
+    <t>P5060277</t>
+  </si>
+  <si>
+    <t>P5060278</t>
+  </si>
+  <si>
+    <t>P5060280</t>
+  </si>
+  <si>
+    <t>P5060281</t>
+  </si>
+  <si>
+    <t>P5060283</t>
+  </si>
+  <si>
+    <t>P5060285</t>
+  </si>
+  <si>
+    <t>P5060286</t>
+  </si>
+  <si>
+    <t>P5060288</t>
+  </si>
+  <si>
+    <t>P5060289</t>
+  </si>
+  <si>
+    <t>P5060290</t>
+  </si>
+  <si>
+    <t>P5060291</t>
+  </si>
+  <si>
+    <t>P5060295</t>
+  </si>
+  <si>
+    <t>P5060296</t>
+  </si>
+  <si>
+    <t>P5060297</t>
+  </si>
+  <si>
+    <t>P5060298</t>
+  </si>
+  <si>
+    <t>P5060299</t>
+  </si>
+  <si>
+    <t>P5060302</t>
+  </si>
+  <si>
+    <t>P5060304</t>
+  </si>
+  <si>
+    <t>P5060306</t>
+  </si>
+  <si>
+    <t>P5060308</t>
+  </si>
+  <si>
+    <t>P5060309</t>
+  </si>
+  <si>
+    <t>P5060310</t>
+  </si>
+  <si>
+    <t>P5060311</t>
+  </si>
+  <si>
+    <t>P5060312</t>
+  </si>
+  <si>
+    <t>P5060314</t>
+  </si>
+  <si>
+    <t>P5060315</t>
+  </si>
+  <si>
+    <t>P5060319-20</t>
+  </si>
+  <si>
+    <t>P5060324</t>
+  </si>
+  <si>
+    <t>P5060326</t>
+  </si>
+  <si>
+    <t>P5060331</t>
+  </si>
+  <si>
+    <t>P5060332</t>
+  </si>
+  <si>
+    <t>P5060334</t>
+  </si>
+  <si>
+    <t>P5060336</t>
+  </si>
+  <si>
+    <t>P5060339</t>
+  </si>
+  <si>
+    <t>P5060341</t>
+  </si>
+  <si>
+    <t>P5060343</t>
+  </si>
+  <si>
+    <t>P5060344</t>
+  </si>
+  <si>
+    <t>P5060346</t>
+  </si>
+  <si>
+    <t>P5060348</t>
+  </si>
+  <si>
+    <t>P5060349</t>
+  </si>
+  <si>
+    <t>P5060351</t>
+  </si>
+  <si>
+    <t>P5060357</t>
+  </si>
+  <si>
+    <t>P5060359</t>
+  </si>
+  <si>
+    <t>P5060360</t>
+  </si>
+  <si>
+    <t>P5060361</t>
+  </si>
+  <si>
+    <t>P5060362</t>
+  </si>
+  <si>
+    <t>P5060365</t>
+  </si>
+  <si>
+    <t>P5060366</t>
+  </si>
+  <si>
+    <t>P5060371</t>
+  </si>
+  <si>
+    <t>P5060372</t>
+  </si>
+  <si>
+    <t>P5060373</t>
+  </si>
+  <si>
+    <t>P5060376</t>
+  </si>
+  <si>
+    <t>P5060377</t>
+  </si>
+  <si>
+    <t>P5060380</t>
+  </si>
+  <si>
+    <t>P5060382</t>
+  </si>
+  <si>
+    <t>P5067766</t>
+  </si>
+  <si>
+    <t>P5067767</t>
+  </si>
+  <si>
+    <t>P5067768</t>
+  </si>
+  <si>
+    <t>P5067769</t>
+  </si>
+  <si>
+    <t>P5067770</t>
+  </si>
+  <si>
+    <t>P5067771</t>
+  </si>
+  <si>
+    <t>P5067772-3</t>
+  </si>
+  <si>
+    <t>P5067774</t>
+  </si>
+  <si>
+    <t>P5067775</t>
+  </si>
+  <si>
+    <t>P5067776</t>
+  </si>
+  <si>
+    <t>P5067777</t>
+  </si>
+  <si>
+    <t>P5067778</t>
+  </si>
+  <si>
+    <t>P5067779</t>
+  </si>
+  <si>
+    <t>P5067780</t>
+  </si>
+  <si>
+    <t>P5067781-2</t>
+  </si>
+  <si>
+    <t>P5067783-4</t>
+  </si>
+  <si>
+    <t>P5067785</t>
+  </si>
+  <si>
+    <t>P5067786-7</t>
+  </si>
+  <si>
+    <t>P5067788</t>
+  </si>
+  <si>
+    <t>P5067789</t>
+  </si>
+  <si>
+    <t>P5067790</t>
+  </si>
+  <si>
+    <t>P5067791</t>
+  </si>
+  <si>
+    <t>P5067792</t>
+  </si>
+  <si>
+    <t>P5067793-4</t>
+  </si>
+  <si>
+    <t>P5067795</t>
+  </si>
+  <si>
+    <t>P5067796</t>
+  </si>
+  <si>
+    <t>P5067797-8</t>
+  </si>
+  <si>
+    <t>P5067799</t>
+  </si>
+  <si>
+    <t>P5067800-1</t>
+  </si>
+  <si>
+    <t>P5067802</t>
+  </si>
+  <si>
+    <t>P5067803</t>
+  </si>
+  <si>
+    <t>P5067804</t>
+  </si>
+  <si>
+    <t>P5067805</t>
+  </si>
+  <si>
+    <t>P5067806</t>
+  </si>
+  <si>
+    <t>P5067807</t>
+  </si>
+  <si>
+    <t>P5067808</t>
+  </si>
+  <si>
+    <t>P5067809</t>
+  </si>
+  <si>
+    <t>P5067810</t>
+  </si>
+  <si>
+    <t>P5067811</t>
+  </si>
+  <si>
+    <t>P5067812</t>
+  </si>
+  <si>
+    <t>P5067813</t>
+  </si>
+  <si>
+    <t>P5067814</t>
+  </si>
+  <si>
+    <t>P5067815</t>
+  </si>
+  <si>
+    <t>P5067816</t>
+  </si>
+  <si>
+    <t>P5067817</t>
+  </si>
+  <si>
+    <t>P5067818</t>
+  </si>
+  <si>
+    <t>P5067819</t>
+  </si>
+  <si>
+    <t>P5067820</t>
+  </si>
+  <si>
+    <t>P5067821</t>
+  </si>
+  <si>
+    <t>P5067822</t>
+  </si>
+  <si>
+    <t>P5067823</t>
+  </si>
+  <si>
+    <t>P5067824</t>
+  </si>
+  <si>
+    <t>P5067825</t>
+  </si>
+  <si>
+    <t>P5067826</t>
+  </si>
+  <si>
+    <t>P5067827</t>
+  </si>
+  <si>
+    <t>P5067828</t>
+  </si>
+  <si>
+    <t>P5067829</t>
+  </si>
+  <si>
+    <t>P5067830</t>
+  </si>
+  <si>
+    <t>P5067831</t>
+  </si>
+  <si>
+    <t>P5067832-3</t>
+  </si>
+  <si>
+    <t>P5067834</t>
+  </si>
+  <si>
+    <t>P5067835</t>
+  </si>
+  <si>
+    <t>P5067836</t>
+  </si>
+  <si>
+    <t>P5067837</t>
+  </si>
+  <si>
+    <t>MI_S3</t>
+  </si>
+  <si>
+    <t>AA-EJ</t>
+  </si>
+  <si>
+    <t>GOPR2433</t>
+  </si>
+  <si>
+    <t>GOPR2434</t>
+  </si>
+  <si>
+    <t>GOPR2435</t>
+  </si>
+  <si>
+    <t>GOPR2437</t>
+  </si>
+  <si>
+    <t>GOPR2438</t>
+  </si>
+  <si>
+    <t>GOPR2439</t>
+  </si>
+  <si>
+    <t>GOPR2440</t>
+  </si>
+  <si>
+    <t>GOPR2441</t>
+  </si>
+  <si>
+    <t>GOPR2442</t>
+  </si>
+  <si>
+    <t>GOPR2443</t>
+  </si>
+  <si>
+    <t>GOPR2444</t>
+  </si>
+  <si>
+    <t>GOPR2445</t>
+  </si>
+  <si>
+    <t>GOPR2446</t>
+  </si>
+  <si>
+    <t>GOPR2447</t>
+  </si>
+  <si>
+    <t>GOPR2448</t>
+  </si>
+  <si>
+    <t>GOPR2449</t>
+  </si>
+  <si>
+    <t>GOPR2450</t>
+  </si>
+  <si>
+    <t>GOPR2451</t>
+  </si>
+  <si>
+    <t>GOPR2452</t>
+  </si>
+  <si>
+    <t>GOPR2453</t>
+  </si>
+  <si>
+    <t>GOPR2454</t>
+  </si>
+  <si>
+    <t>GOPR2455</t>
+  </si>
+  <si>
+    <t>GOPR2456</t>
+  </si>
+  <si>
+    <t>GOPR2457</t>
+  </si>
+  <si>
+    <t>GOPR2458</t>
+  </si>
+  <si>
+    <t>GOPR2459</t>
+  </si>
+  <si>
+    <t>GOPR2460</t>
+  </si>
+  <si>
+    <t>GOPR2461</t>
+  </si>
+  <si>
+    <t>GOPR2462</t>
+  </si>
+  <si>
+    <t>GOPR2463</t>
+  </si>
+  <si>
+    <t>GOPR2464</t>
+  </si>
+  <si>
+    <t>GOPR2465</t>
+  </si>
+  <si>
+    <t>GOPR2466</t>
+  </si>
+  <si>
+    <t>GOPR2467</t>
+  </si>
+  <si>
+    <t>GOPR2468</t>
+  </si>
+  <si>
+    <t>GOPR2469</t>
+  </si>
+  <si>
+    <t>GOPR2470</t>
+  </si>
+  <si>
+    <t>GOPR2471</t>
+  </si>
+  <si>
+    <t>GOPR2472</t>
+  </si>
+  <si>
+    <t>GOPR2473</t>
+  </si>
+  <si>
+    <t>GOPR2474</t>
+  </si>
+  <si>
+    <t>GOPR2475</t>
+  </si>
+  <si>
+    <t>GOPR2476</t>
+  </si>
+  <si>
+    <t>GOPR2477</t>
+  </si>
+  <si>
+    <t>GOPR2478</t>
+  </si>
+  <si>
+    <t>GOPR2479</t>
+  </si>
+  <si>
+    <t>GOPR2480</t>
+  </si>
+  <si>
+    <t>GOPR2481</t>
+  </si>
+  <si>
+    <t>GOPR2482</t>
+  </si>
+  <si>
+    <t>GOPR2483</t>
+  </si>
+  <si>
+    <t>GOPR2484</t>
+  </si>
+  <si>
+    <t>GOPR2485</t>
+  </si>
+  <si>
+    <t>GOPR2486</t>
+  </si>
+  <si>
+    <t>GOPR2487</t>
+  </si>
+  <si>
+    <t>GOPR2488</t>
+  </si>
+  <si>
+    <t>GOPR2489</t>
+  </si>
+  <si>
+    <t>GOPR2490</t>
+  </si>
+  <si>
+    <t>GOPR2491</t>
+  </si>
+  <si>
+    <t>GOPR2492</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Roboto"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -640,7 +1256,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -650,66 +1266,42 @@
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
+  <cellXfs count="5">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -899,20 +1491,25 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:K396"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="D376" zoomScale="153" workbookViewId="0">
+      <selection activeCell="G383" sqref="G383"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -947,7 +1544,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>11</v>
       </c>
@@ -973,7 +1570,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>11</v>
       </c>
@@ -996,10 +1593,10 @@
         <v>17</v>
       </c>
       <c r="K3" s="3">
-        <v>10.0</v>
-      </c>
-    </row>
-    <row r="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>11</v>
       </c>
@@ -1022,10 +1619,10 @@
         <v>17</v>
       </c>
       <c r="K4" s="3">
-        <v>6.0</v>
-      </c>
-    </row>
-    <row r="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>11</v>
       </c>
@@ -1048,10 +1645,10 @@
         <v>17</v>
       </c>
       <c r="K5" s="3">
-        <v>10.0</v>
-      </c>
-    </row>
-    <row r="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>11</v>
       </c>
@@ -1074,10 +1671,10 @@
         <v>23</v>
       </c>
       <c r="K6" s="3">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>11</v>
       </c>
@@ -1100,10 +1697,10 @@
         <v>17</v>
       </c>
       <c r="K7" s="3">
-        <v>6.0</v>
-      </c>
-    </row>
-    <row r="8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>11</v>
       </c>
@@ -1129,7 +1726,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>11</v>
       </c>
@@ -1152,10 +1749,10 @@
         <v>17</v>
       </c>
       <c r="K9" s="3">
-        <v>20.0</v>
-      </c>
-    </row>
-    <row r="10">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>11</v>
       </c>
@@ -1181,7 +1778,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>11</v>
       </c>
@@ -1204,10 +1801,10 @@
         <v>17</v>
       </c>
       <c r="K11" s="3">
-        <v>20.0</v>
-      </c>
-    </row>
-    <row r="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>11</v>
       </c>
@@ -1230,10 +1827,10 @@
         <v>17</v>
       </c>
       <c r="K12" s="3">
-        <v>10.0</v>
-      </c>
-    </row>
-    <row r="13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>11</v>
       </c>
@@ -1259,7 +1856,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>11</v>
       </c>
@@ -1282,10 +1879,10 @@
         <v>17</v>
       </c>
       <c r="K14" s="3">
-        <v>6.0</v>
-      </c>
-    </row>
-    <row r="15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>11</v>
       </c>
@@ -1308,10 +1905,10 @@
         <v>17</v>
       </c>
       <c r="K15" s="3">
-        <v>15.0</v>
-      </c>
-    </row>
-    <row r="16">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>34</v>
       </c>
@@ -1334,10 +1931,10 @@
         <v>17</v>
       </c>
       <c r="K16" s="3">
-        <v>10.0</v>
-      </c>
-    </row>
-    <row r="17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>34</v>
       </c>
@@ -1360,10 +1957,10 @@
         <v>17</v>
       </c>
       <c r="K17" s="3">
-        <v>13.0</v>
-      </c>
-    </row>
-    <row r="18">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>34</v>
       </c>
@@ -1389,7 +1986,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>34</v>
       </c>
@@ -1415,7 +2012,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>34</v>
       </c>
@@ -1438,10 +2035,10 @@
         <v>17</v>
       </c>
       <c r="K20" s="3">
-        <v>6.0</v>
-      </c>
-    </row>
-    <row r="21">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>34</v>
       </c>
@@ -1467,7 +2064,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>34</v>
       </c>
@@ -1490,10 +2087,10 @@
         <v>17</v>
       </c>
       <c r="K22" s="3">
-        <v>15.0</v>
-      </c>
-    </row>
-    <row r="23">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>34</v>
       </c>
@@ -1519,7 +2116,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>34</v>
       </c>
@@ -1542,10 +2139,10 @@
         <v>17</v>
       </c>
       <c r="K24" s="3">
-        <v>10.0</v>
-      </c>
-    </row>
-    <row r="25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>46</v>
       </c>
@@ -1568,10 +2165,10 @@
         <v>17</v>
       </c>
       <c r="K25" s="3">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="26">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>46</v>
       </c>
@@ -1597,7 +2194,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>46</v>
       </c>
@@ -1620,10 +2217,10 @@
         <v>17</v>
       </c>
       <c r="K27" s="3">
-        <v>6.0</v>
-      </c>
-    </row>
-    <row r="28">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>46</v>
       </c>
@@ -1649,7 +2246,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>46</v>
       </c>
@@ -1675,7 +2272,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>46</v>
       </c>
@@ -1701,7 +2298,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>46</v>
       </c>
@@ -1724,10 +2321,10 @@
         <v>40</v>
       </c>
       <c r="K31" s="3">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>46</v>
       </c>
@@ -1753,7 +2350,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>46</v>
       </c>
@@ -1776,10 +2373,10 @@
         <v>17</v>
       </c>
       <c r="K33" s="3">
-        <v>10.0</v>
-      </c>
-    </row>
-    <row r="34">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>46</v>
       </c>
@@ -1805,7 +2402,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>46</v>
       </c>
@@ -1831,7 +2428,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>46</v>
       </c>
@@ -1854,10 +2451,10 @@
         <v>17</v>
       </c>
       <c r="K36" s="3">
-        <v>6.0</v>
-      </c>
-    </row>
-    <row r="37">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>46</v>
       </c>
@@ -1883,7 +2480,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>46</v>
       </c>
@@ -1906,10 +2503,10 @@
         <v>17</v>
       </c>
       <c r="K38" s="3">
-        <v>15.0</v>
-      </c>
-    </row>
-    <row r="39">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>46</v>
       </c>
@@ -1935,7 +2532,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>46</v>
       </c>
@@ -1958,10 +2555,10 @@
         <v>17</v>
       </c>
       <c r="K40" s="3">
-        <v>20.0</v>
-      </c>
-    </row>
-    <row r="41">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>46</v>
       </c>
@@ -1987,7 +2584,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>46</v>
       </c>
@@ -2013,7 +2610,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
         <v>46</v>
       </c>
@@ -2036,10 +2633,10 @@
         <v>17</v>
       </c>
       <c r="K43" s="3">
-        <v>20.0</v>
-      </c>
-    </row>
-    <row r="44">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
         <v>46</v>
       </c>
@@ -2065,7 +2662,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>46</v>
       </c>
@@ -2088,10 +2685,10 @@
         <v>17</v>
       </c>
       <c r="K45" s="3">
-        <v>25.0</v>
-      </c>
-    </row>
-    <row r="46">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
         <v>46</v>
       </c>
@@ -2114,10 +2711,10 @@
         <v>17</v>
       </c>
       <c r="K46" s="3">
-        <v>15.0</v>
-      </c>
-    </row>
-    <row r="47">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
         <v>46</v>
       </c>
@@ -2140,10 +2737,10 @@
         <v>17</v>
       </c>
       <c r="K47" s="3">
-        <v>30.0</v>
-      </c>
-    </row>
-    <row r="48">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
         <v>46</v>
       </c>
@@ -2169,7 +2766,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
         <v>46</v>
       </c>
@@ -2192,7 +2789,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
         <v>46</v>
       </c>
@@ -2215,7 +2812,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
         <v>46</v>
       </c>
@@ -2238,7 +2835,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
         <v>46</v>
       </c>
@@ -2261,7 +2858,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="53">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
         <v>46</v>
       </c>
@@ -2287,7 +2884,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="54">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
         <v>46</v>
       </c>
@@ -2310,7 +2907,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="55">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
         <v>46</v>
       </c>
@@ -2333,7 +2930,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="56">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
         <v>46</v>
       </c>
@@ -2359,7 +2956,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="57">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
         <v>46</v>
       </c>
@@ -2385,7 +2982,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="58">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
         <v>46</v>
       </c>
@@ -2408,7 +3005,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="59">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
         <v>46</v>
       </c>
@@ -2431,7 +3028,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="60">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
         <v>46</v>
       </c>
@@ -2457,7 +3054,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="61">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
         <v>46</v>
       </c>
@@ -2480,7 +3077,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="62">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
         <v>46</v>
       </c>
@@ -2503,7 +3100,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="63">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
         <v>46</v>
       </c>
@@ -2526,10 +3123,10 @@
         <v>17</v>
       </c>
       <c r="K63" s="3">
-        <v>15.0</v>
-      </c>
-    </row>
-    <row r="64">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
         <v>46</v>
       </c>
@@ -2552,7 +3149,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="65">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
         <v>46</v>
       </c>
@@ -2578,7 +3175,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="66">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
         <v>46</v>
       </c>
@@ -2601,7 +3198,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="67">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
         <v>46</v>
       </c>
@@ -2627,7 +3224,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="68">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
         <v>46</v>
       </c>
@@ -2650,7 +3247,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="69">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
         <v>46</v>
       </c>
@@ -2676,7 +3273,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="70">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
         <v>46</v>
       </c>
@@ -2699,7 +3296,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="71">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
         <v>46</v>
       </c>
@@ -2725,7 +3322,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="72">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
         <v>46</v>
       </c>
@@ -2751,7 +3348,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="73">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
         <v>46</v>
       </c>
@@ -2774,10 +3371,10 @@
         <v>17</v>
       </c>
       <c r="K73" s="3">
-        <v>15.0</v>
-      </c>
-    </row>
-    <row r="74">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
         <v>46</v>
       </c>
@@ -2800,7 +3397,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="75">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
         <v>46</v>
       </c>
@@ -2823,7 +3420,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="76">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
         <v>46</v>
       </c>
@@ -2846,7 +3443,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="77">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
         <v>46</v>
       </c>
@@ -2869,10 +3466,10 @@
         <v>17</v>
       </c>
       <c r="K77" s="3">
-        <v>10.0</v>
-      </c>
-    </row>
-    <row r="78">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
         <v>46</v>
       </c>
@@ -2895,7 +3492,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="79">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
         <v>46</v>
       </c>
@@ -2921,7 +3518,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="80">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
         <v>46</v>
       </c>
@@ -2944,7 +3541,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="81">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
         <v>46</v>
       </c>
@@ -2967,7 +3564,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="82">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
         <v>46</v>
       </c>
@@ -2993,7 +3590,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="83">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
         <v>46</v>
       </c>
@@ -3016,7 +3613,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="84">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
         <v>46</v>
       </c>
@@ -3039,7 +3636,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="85">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
         <v>46</v>
       </c>
@@ -3065,7 +3662,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="86">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
         <v>46</v>
       </c>
@@ -3091,7 +3688,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="87">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
         <v>46</v>
       </c>
@@ -3117,7 +3714,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="88">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
         <v>46</v>
       </c>
@@ -3143,7 +3740,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="89">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
         <v>46</v>
       </c>
@@ -3169,7 +3766,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="90">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
         <v>46</v>
       </c>
@@ -3192,7 +3789,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="91">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
         <v>46</v>
       </c>
@@ -3218,7 +3815,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="92">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
         <v>116</v>
       </c>
@@ -3244,7 +3841,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="93">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
         <v>116</v>
       </c>
@@ -3270,7 +3867,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="94">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
         <v>116</v>
       </c>
@@ -3296,7 +3893,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="95">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
         <v>116</v>
       </c>
@@ -3322,7 +3919,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="96">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
         <v>116</v>
       </c>
@@ -3345,10 +3942,10 @@
         <v>40</v>
       </c>
       <c r="K96" s="3">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="97">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
         <v>116</v>
       </c>
@@ -3371,10 +3968,10 @@
         <v>17</v>
       </c>
       <c r="K97" s="3">
-        <v>15.0</v>
-      </c>
-    </row>
-    <row r="98">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
         <v>116</v>
       </c>
@@ -3397,10 +3994,10 @@
         <v>17</v>
       </c>
       <c r="K98" s="3">
-        <v>15.0</v>
-      </c>
-    </row>
-    <row r="99">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
         <v>116</v>
       </c>
@@ -3423,10 +4020,10 @@
         <v>23</v>
       </c>
       <c r="K99" s="3">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="100">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
         <v>116</v>
       </c>
@@ -3449,10 +4046,10 @@
         <v>17</v>
       </c>
       <c r="K100" s="3">
-        <v>10.0</v>
-      </c>
-    </row>
-    <row r="101">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
         <v>116</v>
       </c>
@@ -3478,7 +4075,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="102">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
         <v>116</v>
       </c>
@@ -3504,7 +4101,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="103">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
         <v>116</v>
       </c>
@@ -3530,7 +4127,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="104">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
         <v>116</v>
       </c>
@@ -3556,7 +4153,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="105">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
         <v>116</v>
       </c>
@@ -3582,7 +4179,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="106">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
         <v>116</v>
       </c>
@@ -3608,7 +4205,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="107">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="3" t="s">
         <v>116</v>
       </c>
@@ -3631,10 +4228,10 @@
         <v>40</v>
       </c>
       <c r="K107" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
         <v>116</v>
       </c>
@@ -3660,7 +4257,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="109">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="3" t="s">
         <v>116</v>
       </c>
@@ -3686,7 +4283,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="110">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="3" t="s">
         <v>116</v>
       </c>
@@ -3709,10 +4306,10 @@
         <v>40</v>
       </c>
       <c r="K110" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="111">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="3" t="s">
         <v>116</v>
       </c>
@@ -3735,10 +4332,10 @@
         <v>40</v>
       </c>
       <c r="K111" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="112">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="3" t="s">
         <v>116</v>
       </c>
@@ -3764,7 +4361,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="113">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="3" t="s">
         <v>116</v>
       </c>
@@ -3787,10 +4384,10 @@
         <v>40</v>
       </c>
       <c r="K113" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="114">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="3" t="s">
         <v>116</v>
       </c>
@@ -3813,10 +4410,10 @@
         <v>40</v>
       </c>
       <c r="K114" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="115">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="3" t="s">
         <v>116</v>
       </c>
@@ -3839,10 +4436,10 @@
         <v>17</v>
       </c>
       <c r="K115" s="3">
-        <v>10.0</v>
-      </c>
-    </row>
-    <row r="116">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="3" t="s">
         <v>116</v>
       </c>
@@ -3868,7 +4465,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="117">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="3" t="s">
         <v>116</v>
       </c>
@@ -3891,10 +4488,10 @@
         <v>40</v>
       </c>
       <c r="K117" s="3">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="118">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="3" t="s">
         <v>116</v>
       </c>
@@ -3920,7 +4517,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="119">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="3" t="s">
         <v>116</v>
       </c>
@@ -3946,7 +4543,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="120">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="3" t="s">
         <v>116</v>
       </c>
@@ -3972,7 +4569,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="121">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="3" t="s">
         <v>116</v>
       </c>
@@ -3995,10 +4592,10 @@
         <v>40</v>
       </c>
       <c r="K121" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="122">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="3" t="s">
         <v>116</v>
       </c>
@@ -4021,10 +4618,10 @@
         <v>40</v>
       </c>
       <c r="K122" s="3">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="123">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="3" t="s">
         <v>116</v>
       </c>
@@ -4050,7 +4647,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="124">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="3" t="s">
         <v>116</v>
       </c>
@@ -4073,10 +4670,10 @@
         <v>17</v>
       </c>
       <c r="K124" s="3">
-        <v>20.0</v>
-      </c>
-    </row>
-    <row r="125">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="3" t="s">
         <v>116</v>
       </c>
@@ -4102,7 +4699,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="126">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="3" t="s">
         <v>116</v>
       </c>
@@ -4128,7 +4725,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="127">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="3" t="s">
         <v>116</v>
       </c>
@@ -4154,7 +4751,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="128">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="3" t="s">
         <v>116</v>
       </c>
@@ -4180,7 +4777,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="129">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="3" t="s">
         <v>116</v>
       </c>
@@ -4206,7 +4803,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="130">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="3" t="s">
         <v>116</v>
       </c>
@@ -4232,7 +4829,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="131">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="3" t="s">
         <v>116</v>
       </c>
@@ -4255,10 +4852,10 @@
         <v>40</v>
       </c>
       <c r="K131" s="3">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="132">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="3" t="s">
         <v>116</v>
       </c>
@@ -4284,7 +4881,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="133">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="3" t="s">
         <v>116</v>
       </c>
@@ -4307,10 +4904,10 @@
         <v>17</v>
       </c>
       <c r="K133" s="3">
-        <v>20.0</v>
-      </c>
-    </row>
-    <row r="134">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="3" t="s">
         <v>116</v>
       </c>
@@ -4336,7 +4933,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="135">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="3" t="s">
         <v>116</v>
       </c>
@@ -4362,7 +4959,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="136">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="3" t="s">
         <v>116</v>
       </c>
@@ -4385,10 +4982,10 @@
         <v>40</v>
       </c>
       <c r="K136" s="3">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="137">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="3" t="s">
         <v>116</v>
       </c>
@@ -4414,7 +5011,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="138">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="3" t="s">
         <v>116</v>
       </c>
@@ -4437,33 +5034,54 @@
         <v>17</v>
       </c>
       <c r="K138" s="3">
-        <v>10.0</v>
-      </c>
-    </row>
-    <row r="139">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A139" s="3" t="s">
+        <v>116</v>
+      </c>
       <c r="B139" s="3" t="s">
         <v>12</v>
+      </c>
+      <c r="C139" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D139" s="3" t="s">
+        <v>118</v>
       </c>
       <c r="E139" s="3" t="s">
         <v>161</v>
       </c>
       <c r="F139" s="3" t="s">
-        <v>29</v>
+        <v>195</v>
       </c>
       <c r="G139" s="3" t="s">
         <v>17</v>
       </c>
       <c r="K139" s="3">
-        <v>10.0</v>
-      </c>
-    </row>
-    <row r="140">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A140" s="3" t="s">
+        <v>116</v>
+      </c>
       <c r="B140" s="3" t="s">
         <v>12</v>
+      </c>
+      <c r="C140" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D140" s="3" t="s">
+        <v>118</v>
       </c>
       <c r="E140" s="3" t="s">
         <v>162</v>
       </c>
+      <c r="F140" s="3" t="s">
+        <v>195</v>
+      </c>
       <c r="G140" s="3" t="s">
         <v>40</v>
       </c>
@@ -4471,27 +5089,51 @@
         <v>53</v>
       </c>
     </row>
-    <row r="141">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A141" s="3" t="s">
+        <v>116</v>
+      </c>
       <c r="B141" s="3" t="s">
         <v>12</v>
+      </c>
+      <c r="C141" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D141" s="3" t="s">
+        <v>118</v>
       </c>
       <c r="E141" s="3" t="s">
         <v>162</v>
       </c>
+      <c r="F141" s="3" t="s">
+        <v>195</v>
+      </c>
       <c r="G141" s="3" t="s">
         <v>40</v>
       </c>
       <c r="K141" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="142">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A142" s="3" t="s">
+        <v>116</v>
+      </c>
       <c r="B142" s="3" t="s">
         <v>12</v>
+      </c>
+      <c r="C142" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D142" s="3" t="s">
+        <v>118</v>
       </c>
       <c r="E142" s="3" t="s">
         <v>163</v>
       </c>
+      <c r="F142" s="3" t="s">
+        <v>195</v>
+      </c>
       <c r="G142" s="3" t="s">
         <v>40</v>
       </c>
@@ -4499,41 +5141,77 @@
         <v>18</v>
       </c>
     </row>
-    <row r="143">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A143" s="3" t="s">
+        <v>116</v>
+      </c>
       <c r="B143" s="3" t="s">
         <v>12</v>
+      </c>
+      <c r="C143" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D143" s="3" t="s">
+        <v>118</v>
       </c>
       <c r="E143" s="3" t="s">
         <v>164</v>
       </c>
+      <c r="F143" s="3" t="s">
+        <v>195</v>
+      </c>
       <c r="G143" s="3" t="s">
         <v>40</v>
       </c>
       <c r="K143" s="3">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="144">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A144" s="3" t="s">
+        <v>116</v>
+      </c>
       <c r="B144" s="3" t="s">
         <v>12</v>
+      </c>
+      <c r="C144" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D144" s="3" t="s">
+        <v>118</v>
       </c>
       <c r="E144" s="3" t="s">
         <v>165</v>
       </c>
+      <c r="F144" s="3" t="s">
+        <v>195</v>
+      </c>
       <c r="G144" s="3" t="s">
         <v>40</v>
       </c>
       <c r="K144" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="145">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A145" s="3" t="s">
+        <v>116</v>
+      </c>
       <c r="B145" s="3" t="s">
         <v>12</v>
+      </c>
+      <c r="C145" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D145" s="3" t="s">
+        <v>118</v>
       </c>
       <c r="E145" s="3" t="s">
         <v>166</v>
       </c>
+      <c r="F145" s="3" t="s">
+        <v>195</v>
+      </c>
       <c r="G145" s="3" t="s">
         <v>17</v>
       </c>
@@ -4541,27 +5219,51 @@
         <v>18</v>
       </c>
     </row>
-    <row r="146">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A146" s="3" t="s">
+        <v>116</v>
+      </c>
       <c r="B146" s="3" t="s">
         <v>12</v>
+      </c>
+      <c r="C146" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D146" s="3" t="s">
+        <v>118</v>
       </c>
       <c r="E146" s="3" t="s">
         <v>167</v>
       </c>
+      <c r="F146" s="3" t="s">
+        <v>195</v>
+      </c>
       <c r="G146" s="3" t="s">
         <v>40</v>
       </c>
       <c r="K146" s="3">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="147">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A147" s="3" t="s">
+        <v>116</v>
+      </c>
       <c r="B147" s="3" t="s">
         <v>12</v>
+      </c>
+      <c r="C147" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D147" s="3" t="s">
+        <v>118</v>
       </c>
       <c r="E147" s="3" t="s">
         <v>168</v>
       </c>
+      <c r="F147" s="3" t="s">
+        <v>195</v>
+      </c>
       <c r="G147" s="3" t="s">
         <v>17</v>
       </c>
@@ -4569,13 +5271,25 @@
         <v>18</v>
       </c>
     </row>
-    <row r="148">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A148" s="3" t="s">
+        <v>116</v>
+      </c>
       <c r="B148" s="3" t="s">
         <v>12</v>
+      </c>
+      <c r="C148" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D148" s="3" t="s">
+        <v>118</v>
       </c>
       <c r="E148" s="3" t="s">
         <v>169</v>
       </c>
+      <c r="F148" s="3" t="s">
+        <v>195</v>
+      </c>
       <c r="G148" s="3" t="s">
         <v>17</v>
       </c>
@@ -4583,13 +5297,25 @@
         <v>18</v>
       </c>
     </row>
-    <row r="149">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A149" s="3" t="s">
+        <v>116</v>
+      </c>
       <c r="B149" s="3" t="s">
         <v>12</v>
+      </c>
+      <c r="C149" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D149" s="3" t="s">
+        <v>118</v>
       </c>
       <c r="E149" s="3" t="s">
         <v>170</v>
       </c>
+      <c r="F149" s="3" t="s">
+        <v>195</v>
+      </c>
       <c r="G149" s="3" t="s">
         <v>17</v>
       </c>
@@ -4597,83 +5323,155 @@
         <v>18</v>
       </c>
     </row>
-    <row r="150">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A150" s="3" t="s">
+        <v>116</v>
+      </c>
       <c r="B150" s="3" t="s">
         <v>12</v>
+      </c>
+      <c r="C150" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D150" s="3" t="s">
+        <v>118</v>
       </c>
       <c r="E150" s="3" t="s">
         <v>171</v>
       </c>
+      <c r="F150" s="3" t="s">
+        <v>195</v>
+      </c>
       <c r="G150" s="3" t="s">
         <v>40</v>
       </c>
       <c r="K150" s="3">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="151">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A151" s="3" t="s">
+        <v>116</v>
+      </c>
       <c r="B151" s="3" t="s">
         <v>12</v>
+      </c>
+      <c r="C151" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D151" s="3" t="s">
+        <v>118</v>
       </c>
       <c r="E151" s="3" t="s">
         <v>171</v>
       </c>
+      <c r="F151" s="3" t="s">
+        <v>195</v>
+      </c>
       <c r="G151" s="3" t="s">
         <v>40</v>
       </c>
       <c r="K151" s="3">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="152">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A152" s="3" t="s">
+        <v>116</v>
+      </c>
       <c r="B152" s="3" t="s">
         <v>12</v>
+      </c>
+      <c r="C152" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D152" s="3" t="s">
+        <v>118</v>
       </c>
       <c r="E152" s="3" t="s">
         <v>171</v>
       </c>
+      <c r="F152" s="3" t="s">
+        <v>195</v>
+      </c>
       <c r="G152" s="3" t="s">
         <v>40</v>
       </c>
       <c r="K152" s="3">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="153">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A153" s="3" t="s">
+        <v>116</v>
+      </c>
       <c r="B153" s="3" t="s">
         <v>12</v>
+      </c>
+      <c r="C153" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D153" s="3" t="s">
+        <v>118</v>
       </c>
       <c r="E153" s="3" t="s">
         <v>171</v>
       </c>
+      <c r="F153" s="3" t="s">
+        <v>195</v>
+      </c>
       <c r="G153" s="3" t="s">
         <v>40</v>
       </c>
       <c r="K153" s="3">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="154">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A154" s="3" t="s">
+        <v>116</v>
+      </c>
       <c r="B154" s="3" t="s">
         <v>12</v>
+      </c>
+      <c r="C154" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D154" s="3" t="s">
+        <v>118</v>
       </c>
       <c r="E154" s="3" t="s">
         <v>172</v>
       </c>
+      <c r="F154" s="3" t="s">
+        <v>195</v>
+      </c>
       <c r="G154" s="3" t="s">
         <v>40</v>
       </c>
       <c r="K154" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="155">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A155" s="3" t="s">
+        <v>116</v>
+      </c>
       <c r="B155" s="3" t="s">
         <v>12</v>
+      </c>
+      <c r="C155" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D155" s="3" t="s">
+        <v>118</v>
       </c>
       <c r="E155" s="3" t="s">
         <v>173</v>
       </c>
+      <c r="F155" s="3" t="s">
+        <v>195</v>
+      </c>
       <c r="G155" s="3" t="s">
         <v>17</v>
       </c>
@@ -4681,41 +5479,77 @@
         <v>18</v>
       </c>
     </row>
-    <row r="156">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A156" s="3" t="s">
+        <v>116</v>
+      </c>
       <c r="B156" s="3" t="s">
         <v>12</v>
+      </c>
+      <c r="C156" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D156" s="3" t="s">
+        <v>118</v>
       </c>
       <c r="E156" s="3" t="s">
         <v>174</v>
       </c>
+      <c r="F156" s="3" t="s">
+        <v>195</v>
+      </c>
       <c r="G156" s="3" t="s">
         <v>40</v>
       </c>
       <c r="K156" s="3">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="157">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A157" s="3" t="s">
+        <v>116</v>
+      </c>
       <c r="B157" s="3" t="s">
         <v>12</v>
+      </c>
+      <c r="C157" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D157" s="3" t="s">
+        <v>118</v>
       </c>
       <c r="E157" s="3" t="s">
         <v>175</v>
       </c>
+      <c r="F157" s="3" t="s">
+        <v>195</v>
+      </c>
       <c r="G157" s="3" t="s">
         <v>40</v>
       </c>
       <c r="K157" s="3">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="158">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A158" s="3" t="s">
+        <v>116</v>
+      </c>
       <c r="B158" s="3" t="s">
         <v>12</v>
+      </c>
+      <c r="C158" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D158" s="3" t="s">
+        <v>118</v>
       </c>
       <c r="E158" s="3" t="s">
         <v>176</v>
       </c>
+      <c r="F158" s="3" t="s">
+        <v>195</v>
+      </c>
       <c r="G158" s="3" t="s">
         <v>40</v>
       </c>
@@ -4723,13 +5557,25 @@
         <v>123</v>
       </c>
     </row>
-    <row r="159">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A159" s="3" t="s">
+        <v>116</v>
+      </c>
       <c r="B159" s="3" t="s">
         <v>12</v>
+      </c>
+      <c r="C159" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D159" s="3" t="s">
+        <v>118</v>
       </c>
       <c r="E159" s="3" t="s">
         <v>177</v>
       </c>
+      <c r="F159" s="3" t="s">
+        <v>195</v>
+      </c>
       <c r="G159" s="3" t="s">
         <v>17</v>
       </c>
@@ -4737,38 +5583,74 @@
         <v>18</v>
       </c>
     </row>
-    <row r="160">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A160" s="3" t="s">
+        <v>116</v>
+      </c>
       <c r="B160" s="3" t="s">
         <v>12</v>
+      </c>
+      <c r="C160" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D160" s="3" t="s">
+        <v>118</v>
       </c>
       <c r="E160" s="3" t="s">
         <v>178</v>
       </c>
+      <c r="F160" s="3" t="s">
+        <v>195</v>
+      </c>
       <c r="G160" s="3" t="s">
         <v>17</v>
       </c>
       <c r="K160" s="3">
-        <v>8.0</v>
-      </c>
-    </row>
-    <row r="161">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A161" s="3" t="s">
+        <v>116</v>
+      </c>
       <c r="B161" s="3" t="s">
         <v>12</v>
+      </c>
+      <c r="C161" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D161" s="3" t="s">
+        <v>118</v>
       </c>
       <c r="E161" s="3" t="s">
         <v>179</v>
       </c>
+      <c r="F161" s="3" t="s">
+        <v>195</v>
+      </c>
       <c r="G161" s="3" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="162">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A162" s="3" t="s">
+        <v>116</v>
+      </c>
       <c r="B162" s="3" t="s">
         <v>12</v>
+      </c>
+      <c r="C162" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D162" s="3" t="s">
+        <v>118</v>
       </c>
       <c r="E162" s="3" t="s">
         <v>180</v>
       </c>
+      <c r="F162" s="3" t="s">
+        <v>195</v>
+      </c>
       <c r="G162" s="3" t="s">
         <v>40</v>
       </c>
@@ -4776,27 +5658,51 @@
         <v>53</v>
       </c>
     </row>
-    <row r="163">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A163" s="3" t="s">
+        <v>116</v>
+      </c>
       <c r="B163" s="3" t="s">
         <v>12</v>
+      </c>
+      <c r="C163" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D163" s="3" t="s">
+        <v>118</v>
       </c>
       <c r="E163" s="3" t="s">
         <v>181</v>
       </c>
+      <c r="F163" s="3" t="s">
+        <v>195</v>
+      </c>
       <c r="G163" s="3" t="s">
         <v>40</v>
       </c>
       <c r="K163" s="3">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="164">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A164" s="3" t="s">
+        <v>116</v>
+      </c>
       <c r="B164" s="3" t="s">
         <v>12</v>
+      </c>
+      <c r="C164" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D164" s="3" t="s">
+        <v>118</v>
       </c>
       <c r="E164" s="3" t="s">
         <v>182</v>
       </c>
+      <c r="F164" s="3" t="s">
+        <v>195</v>
+      </c>
       <c r="G164" s="3" t="s">
         <v>40</v>
       </c>
@@ -4804,13 +5710,25 @@
         <v>123</v>
       </c>
     </row>
-    <row r="165">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A165" s="3" t="s">
+        <v>116</v>
+      </c>
       <c r="B165" s="3" t="s">
         <v>12</v>
+      </c>
+      <c r="C165" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D165" s="3" t="s">
+        <v>118</v>
       </c>
       <c r="E165" s="3" t="s">
         <v>183</v>
       </c>
+      <c r="F165" s="3" t="s">
+        <v>195</v>
+      </c>
       <c r="G165" s="3" t="s">
         <v>17</v>
       </c>
@@ -4818,13 +5736,25 @@
         <v>18</v>
       </c>
     </row>
-    <row r="166">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A166" s="3" t="s">
+        <v>116</v>
+      </c>
       <c r="B166" s="3" t="s">
         <v>12</v>
+      </c>
+      <c r="C166" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D166" s="3" t="s">
+        <v>118</v>
       </c>
       <c r="E166" s="3" t="s">
         <v>184</v>
       </c>
+      <c r="F166" s="3" t="s">
+        <v>195</v>
+      </c>
       <c r="G166" s="3" t="s">
         <v>17</v>
       </c>
@@ -4832,13 +5762,25 @@
         <v>18</v>
       </c>
     </row>
-    <row r="167">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A167" s="3" t="s">
+        <v>116</v>
+      </c>
       <c r="B167" s="3" t="s">
         <v>12</v>
+      </c>
+      <c r="C167" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D167" s="3" t="s">
+        <v>118</v>
       </c>
       <c r="E167" s="3" t="s">
         <v>185</v>
       </c>
+      <c r="F167" s="3" t="s">
+        <v>195</v>
+      </c>
       <c r="G167" s="3" t="s">
         <v>40</v>
       </c>
@@ -4846,47 +5788,5713 @@
         <v>18</v>
       </c>
     </row>
-    <row r="168">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A168" s="3" t="s">
+        <v>116</v>
+      </c>
       <c r="B168" s="3" t="s">
         <v>12</v>
+      </c>
+      <c r="C168" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D168" s="3" t="s">
+        <v>118</v>
       </c>
       <c r="E168" s="3" t="s">
         <v>186</v>
       </c>
+      <c r="F168" s="3" t="s">
+        <v>195</v>
+      </c>
       <c r="G168" s="3" t="s">
         <v>40</v>
       </c>
       <c r="K168" s="3">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="169">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A169" s="3" t="s">
+        <v>116</v>
+      </c>
       <c r="B169" s="3" t="s">
         <v>12</v>
+      </c>
+      <c r="C169" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D169" s="3" t="s">
+        <v>118</v>
       </c>
       <c r="E169" s="3" t="s">
         <v>187</v>
       </c>
+      <c r="F169" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="G169" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="170" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A170" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B170" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C170" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D170" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E170" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="F170" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="G170" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="171" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A171" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B171" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C171" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D171" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E171" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="F171" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="G171" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="172" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A172" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B172" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C172" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D172" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E172" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="F172" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="G172" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="173" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A173" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B173" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C173" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D173" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E173" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="F173" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="G173" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="174" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A174" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B174" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C174" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D174" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E174" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="F174" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="G174" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="K174">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="175" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A175" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B175" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C175" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D175" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E175" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="F175" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="G175" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="K175">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A176" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B176" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C176" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D176" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E176" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="F176" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="G176" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="K176">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="177" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A177" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B177" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C177" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D177" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E177" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="F177" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="G177" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="178" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A178" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B178" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C178" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D178" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E178" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="F178" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="G178" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="K178">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A179" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B179" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C179" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D179" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E179" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="F179" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="G179" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="K179">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="180" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A180" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="B180" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C180" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D180" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E180" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="F180" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="G180" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="181" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A181" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="B181" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C181" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D181" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E181" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="F181" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="G181" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="182" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A182" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="B182" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C182" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D182" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E182" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="F182" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="G182" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="183" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A183" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="B183" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C183" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D183" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E183" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="F183" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="G183" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="184" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A184" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="B184" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C184" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D184" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E184" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="F184" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="G184" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="185" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A185" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="B185" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C185" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D185" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E185" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="F185" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="G185" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="186" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A186" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="B186" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C186" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D186" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E186" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="F186" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="G186" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="K186">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A187" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="B187" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C187" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D187" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E187" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="F187" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="G187" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="188" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A188" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="B188" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C188" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D188" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E188" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="F188" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="G188" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="K188">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="189" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A189" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="B189" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C189" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D189" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E189" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="F189" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="G189" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="K189">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A190" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="B190" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C190" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D190" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E190" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="F190" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="G190" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="K190">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="191" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A191" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="B191" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C191" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D191" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E191" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="F191" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="G191" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="192" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A192" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="B192" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C192" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D192" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E192" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="F192" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="G192" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="K192">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="193" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A193" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="B193" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C193" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D193" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E193" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="F193" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="G193" s="3"/>
+    </row>
+    <row r="194" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A194" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="B194" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C194" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D194" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E194" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="F194" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="G194" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="K194">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="195" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A195" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="B195" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C195" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D195" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E195" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="F195" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="G195" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="K195">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="196" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A196" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="B196" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C196" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D196" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E196" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="F196" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="G196" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="197" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A197" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="B197" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C197" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D197" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E197" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="F197" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="G197" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="198" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A198" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="B198" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C198" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D198" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E198" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="F198" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="G198" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="199" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A199" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="B199" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C199" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D199" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E199" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="F199" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="G199" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="200" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A200" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="B200" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C200" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D200" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E200" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="F200" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="G200" s="3"/>
+    </row>
+    <row r="201" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A201" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="B201" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C201" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D201" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E201" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="F201" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="G201" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="202" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A202" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="B202" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C202" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D202" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E202" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="F202" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="G202" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="203" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A203" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="B203" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C203" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D203" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E203" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="F203" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="G203" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="K203">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="204" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A204" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="B204" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C204" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D204" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E204" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="F204" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="G204" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="K204">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="205" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A205" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="B205" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C205" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D205" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E205" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="F205" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="G205" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="K205">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="206" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A206" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="B206" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C206" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D206" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E206" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="F206" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="G206" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="K206">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="207" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A207" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="B207" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C207" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D207" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E207" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="F207" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="G207" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="208" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A208" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="B208" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C208" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D208" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E208" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="F208" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="G208" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="209" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A209" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="B209" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C209" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D209" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E209" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="F209" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="G209" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="210" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A210" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="B210" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C210" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D210" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E210" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="F210" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="G210" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="K210">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="211" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A211" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="B211" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C211" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D211" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E211" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="F211" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="G211" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="K211">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="212" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A212" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="B212" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C212" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D212" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E212" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="F212" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="G212" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="213" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A213" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="B213" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C213" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D213" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E213" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="F213" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="G213" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="214" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A214" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="B214" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C214" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D214" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E214" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="F214" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="G214" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="215" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A215" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="B215" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C215" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D215" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E215" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="F215" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="G215" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="216" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A216" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="B216" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C216" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D216" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E216" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="F216" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="G216" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="217" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A217" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="B217" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C217" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D217" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E217" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="F217" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="G217" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="218" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A218" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="B218" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C218" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D218" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E218" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="F218" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="G218" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="219" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A219" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="B219" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C219" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D219" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E219" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="F219" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="G219" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="220" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A220" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="B220" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C220" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D220" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E220" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="F220" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="G220" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="221" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A221" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="B221" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C221" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D221" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E221" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="F221" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="G221" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="K221">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="222" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A222" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="B222" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C222" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D222" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E222" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="F222" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="G222" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="K222">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="223" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A223" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="B223" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C223" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D223" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E223" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="F223" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="G223" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="K223">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="224" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A224" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="B224" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C224" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D224" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E224" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="F224" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="G224" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="K224">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="225" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A225" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="B225" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C225" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D225" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E225" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="F225" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="G225" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="K225">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="226" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A226" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="B226" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C226" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D226" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E226" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="F226" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="G226" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="K226">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="227" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A227" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="B227" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C227" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D227" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E227" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="F227" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="G227" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="K227">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="228" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A228" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="B228" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C228" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D228" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E228" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="F228" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="G228" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="229" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A229" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="B229" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C229" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D229" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E229" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="F229" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="G229" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="K229">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="230" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A230" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="B230" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C230" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D230" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E230" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="F230" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="G230" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="231" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A231" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="B231" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C231" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D231" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E231" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="F231" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="G231" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="K231">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="232" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A232" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="B232" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C232" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D232" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E232" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="F232" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="G232" s="3"/>
+    </row>
+    <row r="233" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A233" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="B233" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C233" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D233" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E233" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="F233" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="G233" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="K233">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="234" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A234" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="B234" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C234" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D234" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E234" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="F234" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="G234" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="K234">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="235" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A235" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="B235" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C235" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D235" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E235" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="F235" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="G235" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="K235">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="236" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A236" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="B236" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C236" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D236" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E236" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="F236" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="G236" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="K236">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="237" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A237" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="B237" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C237" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D237" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E237" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="F237" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="G237" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="238" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A238" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="B238" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C238" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D238" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E238" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="F238" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="G238" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="K238">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="239" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A239" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="B239" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C239" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D239" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E239" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="F239" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="G239" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="K239">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="240" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A240" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="B240" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C240" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D240" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E240" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="F240" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="G240" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="K240">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="241" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A241" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="B241" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C241" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D241" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E241" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="F241" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="G241" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="K241">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="242" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A242" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="B242" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C242" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D242" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E242" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="F242" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="G242" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="K242">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="243" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A243" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="B243" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C243" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D243" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E243" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="F243" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G243" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="244" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A244" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="B244" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C244" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D244" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E244" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="F244" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G244" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="K244">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="245" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A245" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="B245" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C245" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D245" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E245" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="F245" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G245" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="K245">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="246" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A246" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="B246" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C246" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D246" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E246" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="F246" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G246" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="K246">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="247" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A247" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="B247" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C247" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D247" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E247" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="F247" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G247" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="K247">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="248" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A248" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="B248" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C248" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D248" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E248" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="F248" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G248" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="K248">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="249" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A249" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="B249" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C249" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D249" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E249" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="F249" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G249" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="K249">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="250" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A250" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="B250" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C250" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D250" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E250" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="F250" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G250" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="K250">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="251" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A251" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="B251" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C251" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D251" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E251" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="F251" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G251" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="K251">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="252" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A252" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="B252" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C252" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D252" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E252" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="F252" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G252" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="253" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A253" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="B253" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C253" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D253" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E253" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="F253" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G253" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="254" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A254" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="B254" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C254" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D254" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E254" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="F254" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G254" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="255" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A255" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="B255" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C255" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D255" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E255" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="F255" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G255" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="256" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A256" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="B256" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C256" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D256" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E256" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="F256" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G256" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="257" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A257" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="B257" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C257" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D257" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E257" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="F257" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G257" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="258" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A258" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="B258" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C258" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D258" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E258" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="F258" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G258" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="259" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A259" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="B259" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C259" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D259" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E259" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="F259" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G259" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="260" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A260" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="B260" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C260" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D260" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E260" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="F260" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G260" s="3"/>
+    </row>
+    <row r="261" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A261" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="B261" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C261" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D261" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E261" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="F261" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G261" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="262" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A262" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="B262" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C262" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D262" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E262" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="F262" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G262" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="263" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A263" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="B263" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C263" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D263" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E263" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="F263" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G263" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="K263">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="264" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A264" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="B264" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C264" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D264" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E264" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="F264" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G264" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="K264">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="265" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A265" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="B265" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C265" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D265" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E265" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="F265" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G265" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="266" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A266" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="B266" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C266" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D266" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E266" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="F266" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G266" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="K266">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="267" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A267" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="B267" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C267" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D267" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E267" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="F267" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G267" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="K267">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="268" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A268" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="B268" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C268" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D268" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E268" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="F268" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G268" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="K268">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="269" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A269" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="B269" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C269" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D269" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E269" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="F269" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G269" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="K269">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="270" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A270" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="B270" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C270" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D270" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E270" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="F270" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G270" s="3"/>
+    </row>
+    <row r="271" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A271" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="B271" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C271" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D271" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E271" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="F271" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G271" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="K271">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="272" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A272" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="B272" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C272" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D272" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E272" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="F272" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G272" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="273" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A273" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="B273" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C273" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D273" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E273" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="F273" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G273" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="K273">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="274" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A274" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="B274" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C274" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D274" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E274" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="F274" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G274" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="K274">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="275" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A275" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="B275" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C275" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D275" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E275" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="F275" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G275" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="K275">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="276" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A276" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="B276" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C276" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D276" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E276" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="F276" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G276" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="277" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A277" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="B277" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C277" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D277" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E277" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="F277" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G277" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="K277">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="278" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A278" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="B278" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C278" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D278" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E278" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="F278" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G278" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="K278">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="279" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A279" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="B279" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C279" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D279" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E279" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="F279" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G279" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="280" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A280" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="B280" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C280" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D280" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E280" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="F280" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G280" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="K280">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="281" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A281" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="B281" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C281" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D281" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E281" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="F281" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G281" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="K281">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="282" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A282" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="B282" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C282" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D282" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E282" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="F282" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G282" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="K282">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="283" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A283" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="B283" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C283" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D283" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E283" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="F283" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G283" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="K283">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="284" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A284" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="B284" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C284" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D284" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E284" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="F284" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G284" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="K284">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="285" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A285" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="B285" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C285" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D285" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E285" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="F285" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G285" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="K285">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="286" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A286" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="B286" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C286" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D286" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E286" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="F286" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G286" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="287" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A287" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="B287" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C287" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D287" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E287" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="F287" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G287" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="K287">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="288" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A288" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="B288" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C288" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D288" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E288" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="F288" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G288" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="K288">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="289" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A289" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="B289" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C289" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D289" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E289" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="F289" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G289" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="290" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A290" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="B290" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C290" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D290" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E290" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="F290" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G290" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="K290">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="291" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A291" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="B291" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C291" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D291" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E291" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="F291" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G291" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="292" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A292" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="B292" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C292" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D292" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E292" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="F292" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G292" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="293" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A293" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="B293" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C293" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D293" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E293" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="F293" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G293" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="294" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A294" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="B294" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C294" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D294" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E294" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="F294" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G294" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="K294">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="295" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A295" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="B295" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C295" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D295" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E295" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="F295" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G295" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="K295">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="296" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A296" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="B296" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C296" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D296" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E296" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="F296" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G296" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="K296">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="297" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A297" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="B297" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C297" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D297" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E297" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="F297" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G297" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="K297">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="298" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A298" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="B298" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C298" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D298" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E298" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="F298" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G298" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="K298">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="299" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A299" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="B299" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C299" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D299" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E299" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="F299" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G299" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="K299">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="300" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A300" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="B300" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C300" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D300" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E300" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="F300" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G300" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="K300">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="301" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A301" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="B301" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C301" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D301" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E301" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="F301" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G301" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="K301">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="302" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A302" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="B302" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C302" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D302" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E302" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="F302" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G302" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="K302">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="303" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A303" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="B303" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C303" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D303" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E303" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="F303" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G303" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="K303">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="304" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A304" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="B304" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C304" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D304" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E304" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="F304" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G304" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="K304">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="305" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A305" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="B305" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C305" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D305" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E305" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="F305" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G305" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="K305">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="306" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A306" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="B306" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C306" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D306" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E306" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="F306" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G306" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="K306">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="307" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A307" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="B307" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C307" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D307" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E307" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="F307" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G307" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="K307">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="308" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A308" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="B308" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C308" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D308" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E308" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="F308" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G308" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="K308">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="309" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A309" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="B309" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C309" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D309" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E309" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="F309" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G309" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="K309">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="310" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A310" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="B310" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C310" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D310" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E310" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="F310" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G310" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="K310">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="311" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A311" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="B311" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C311" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D311" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E311" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="F311" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G311" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="K311">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="312" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A312" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="B312" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C312" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D312" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E312" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="F312" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G312" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="K312">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="313" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A313" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="B313" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C313" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D313" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E313" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="F313" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G313" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="K313">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="314" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A314" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="B314" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C314" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D314" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E314" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="F314" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G314" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="K314">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="315" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A315" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="B315" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C315" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D315" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E315" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="F315" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G315" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="K315">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="316" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A316" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="B316" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C316" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D316" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E316" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="F316" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G316" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="K316">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="317" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A317" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="B317" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C317" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D317" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E317" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="F317" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G317" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="K317">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="318" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A318" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="B318" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C318" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D318" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E318" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="F318" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G318" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="319" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A319" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="B319" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C319" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D319" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E319" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="F319" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G319" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="K319">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="320" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A320" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="B320" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C320" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D320" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E320" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="F320" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G320" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="K320">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="321" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A321" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="B321" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C321" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D321" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E321" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="F321" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G321" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="K321">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="322" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A322" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="B322" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C322" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D322" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E322" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="F322" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G322" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="K322">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="323" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A323" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="B323" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C323" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D323" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E323" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="F323" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G323" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="K323">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="324" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A324" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="B324" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C324" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D324" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E324" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="F324" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G324" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="K324">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="325" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A325" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="B325" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C325" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D325" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E325" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="F325" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G325" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="K325">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="326" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A326" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="B326" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C326" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D326" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E326" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="F326" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G326" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="K326">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="327" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A327" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="B327" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C327" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D327" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E327" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="F327" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="328" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A328" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="B328" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C328" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D328" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E328" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="F328" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="329" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A329" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="B329" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C329" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D329" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E329" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="F329" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="G329" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="K329">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="330" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A330" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="B330" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C330" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D330" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E330" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="F330" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="G330" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="K330">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="331" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A331" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="B331" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C331" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D331" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E331" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="F331" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="G331" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="K331">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="332" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A332" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="B332" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C332" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D332" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E332" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="F332" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="G332" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="K332">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="333" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A333" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="B333" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C333" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D333" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E333" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="F333" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="G333" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="K333">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="334" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A334" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="B334" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C334" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D334" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E334" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="F334" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="G334" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="K334">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="335" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A335" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="B335" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C335" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D335" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E335" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="F335" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="G335" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="K335">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="336" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A336" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="B336" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C336" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D336" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E336" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="F336" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="G336" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="337" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A337" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="B337" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C337" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D337" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E337" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="F337" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="G337" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="K337">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="338" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A338" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="B338" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C338" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D338" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E338" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="F338" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="G338" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="339" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A339" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="B339" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C339" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D339" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E339" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="F339" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="G339" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="K339">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="340" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A340" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="B340" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C340" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D340" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E340" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="F340" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="G340" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="341" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A341" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="B341" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C341" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D341" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E341" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="F341" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="G341" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="K341">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="342" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A342" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="B342" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C342" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D342" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E342" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="F342" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="G342" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="K342">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="343" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A343" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="B343" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C343" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D343" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E343" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="F343" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="G343" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="K343">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="344" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A344" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="B344" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C344" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D344" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E344" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="F344" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="G344" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="K344">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="345" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A345" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="B345" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C345" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D345" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E345" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="F345" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="G345" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="K345">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="346" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A346" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="B346" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C346" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D346" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E346" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="F346" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="G346" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="K346">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="347" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A347" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="B347" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C347" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D347" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E347" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="F347" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="G347" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="K347">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="348" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A348" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="B348" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C348" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D348" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E348" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="F348" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="G348" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="349" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A349" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="B349" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C349" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D349" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E349" s="3" t="s">
+        <v>350</v>
+      </c>
+      <c r="F349" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="G349" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="K349">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="350" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A350" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="B350" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C350" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D350" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E350" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="F350" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="G350" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="K350">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="351" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A351" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="B351" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C351" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D351" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E351" s="3" t="s">
+        <v>352</v>
+      </c>
+      <c r="F351" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="G351" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="K351">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="352" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A352" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="B352" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C352" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D352" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E352" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="F352" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="G352" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="K352">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="353" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A353" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="B353" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C353" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D353" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E353" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="F353" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="G353" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="K353">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="354" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A354" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="B354" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C354" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D354" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E354" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="F354" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="G354" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="K354">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="355" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A355" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="B355" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C355" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D355" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E355" s="3" t="s">
+        <v>356</v>
+      </c>
+      <c r="F355" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="G355" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="K355">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="356" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A356" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="B356" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C356" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D356" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E356" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="F356" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="G356" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="K356">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="357" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A357" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="B357" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C357" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D357" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E357" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="F357" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="G357" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="358" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A358" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="B358" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C358" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D358" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E358" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="F358" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="G358" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="K358">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="359" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A359" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="B359" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C359" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D359" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E359" s="3" t="s">
+        <v>359</v>
+      </c>
+      <c r="F359" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="G359" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="360" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A360" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="B360" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C360" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D360" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E360" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="F360" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="G360" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="361" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A361" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="B361" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C361" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D361" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E361" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="F361" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="G361" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="K361">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="362" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A362" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="B362" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C362" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D362" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E362" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="F362" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="G362" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="K362">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="363" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A363" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="B363" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C363" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D363" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E363" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="F363" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="G363" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="K363">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="364" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A364" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="B364" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C364" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D364" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E364" s="3" t="s">
+        <v>363</v>
+      </c>
+      <c r="F364" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="G364" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="365" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A365" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="B365" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C365" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D365" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E365" s="3" t="s">
+        <v>363</v>
+      </c>
+      <c r="F365" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="G365" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="366" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A366" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="B366" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C366" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D366" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E366" s="3" t="s">
+        <v>363</v>
+      </c>
+      <c r="F366" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="G366" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="367" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A367" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="B367" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C367" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D367" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E367" s="3" t="s">
+        <v>364</v>
+      </c>
+      <c r="F367" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="G367" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="K367">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="368" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A368" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="B368" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C368" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D368" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E368" s="3" t="s">
+        <v>365</v>
+      </c>
+      <c r="F368" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="G368" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="K368">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="369" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A369" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="B369" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C369" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D369" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E369" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="F369" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="G369" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="K369">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="370" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A370" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="B370" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C370" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D370" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E370" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="F370" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="G370" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="K370">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="371" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A371" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="B371" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C371" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D371" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E371" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="F371" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="G371" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="K371">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="372" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A372" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="B372" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C372" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D372" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E372" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="F372" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="G372" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="K372">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="373" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A373" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="B373" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C373" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D373" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E373" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="F373" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="G373" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="K373">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="374" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A374" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="B374" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C374" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D374" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E374" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="F374" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="G374" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="K374">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="375" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A375" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="B375" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C375" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D375" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E375" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="F375" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="G375" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="K375">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="376" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A376" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="B376" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C376" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D376" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E376" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="F376" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="G376" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="K376">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="377" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A377" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="B377" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C377" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D377" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E377" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="F377" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="G377" s="3"/>
+    </row>
+    <row r="378" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A378" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="B378" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C378" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D378" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E378" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="F378" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="G378" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="379" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A379" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="B379" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C379" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D379" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E379" s="3" t="s">
+        <v>374</v>
+      </c>
+      <c r="F379" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="G379" s="3"/>
+    </row>
+    <row r="380" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A380" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="B380" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C380" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D380" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E380" s="3" t="s">
+        <v>375</v>
+      </c>
+      <c r="F380" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="G380" s="3"/>
+    </row>
+    <row r="381" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A381" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="B381" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C381" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D381" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E381" s="3" t="s">
+        <v>376</v>
+      </c>
+      <c r="F381" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="G381" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="382" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A382" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="B382" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C382" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D382" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E382" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="F382" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="G382" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="383" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A383" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="B383" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C383" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D383" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E383" s="3" t="s">
+        <v>378</v>
+      </c>
+      <c r="F383" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="G383" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="384" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A384" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="B384" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C384" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D384" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E384" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="F384" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="G384" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="385" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A385" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="B385" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C385" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D385" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E385" s="3" t="s">
+        <v>380</v>
+      </c>
+      <c r="F385" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="G385" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="K385">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="386" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A386" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="B386" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C386" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D386" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E386" s="3" t="s">
+        <v>380</v>
+      </c>
+      <c r="F386" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="G386" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="K386">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="387" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A387" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="B387" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C387" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D387" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E387" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="F387" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="G387" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="K387">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="388" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A388" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="B388" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C388" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D388" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E388" s="3" t="s">
+        <v>382</v>
+      </c>
+      <c r="F388" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="G388" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="K388">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="389" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A389" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="B389" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C389" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D389" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E389" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="F389" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="G389" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="K389">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="390" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A390" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="B390" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C390" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D390" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E390" s="3" t="s">
+        <v>384</v>
+      </c>
+      <c r="F390" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="G390" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="K390">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="391" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A391" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="B391" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C391" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D391" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E391" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="F391" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="G391" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="K391">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="392" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A392" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="B392" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C392" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D392" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E392" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="F392" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="G392" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="K392">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="393" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A393" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="B393" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C393" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D393" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E393" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="F393" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="G393" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="K393">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="394" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A394" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="B394" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C394" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D394" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E394" s="3" t="s">
+        <v>387</v>
+      </c>
+      <c r="F394" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="G394" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="395" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A395" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="B395" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C395" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D395" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E395" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="F395" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="G395" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="K395">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="396" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A396" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="B396" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C396" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D396" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E396" s="3" t="s">
+        <v>389</v>
+      </c>
+      <c r="F396" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="G396" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="K396">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col customWidth="1" min="10" max="10" width="15.88"/>
+    <col min="10" max="10" width="15.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>4</v>
       </c>
@@ -4909,7 +11517,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>15</v>
       </c>
@@ -4932,7 +11540,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>19</v>
       </c>
@@ -4943,13 +11551,13 @@
         <v>17</v>
       </c>
       <c r="G3" s="3">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="H3" s="3" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>20</v>
       </c>
@@ -4960,13 +11568,13 @@
         <v>17</v>
       </c>
       <c r="G4" s="3">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="H4" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>21</v>
       </c>
@@ -4977,13 +11585,13 @@
         <v>17</v>
       </c>
       <c r="G5" s="3">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="H5" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>22</v>
       </c>
@@ -4994,13 +11602,13 @@
         <v>23</v>
       </c>
       <c r="G6" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="H6" s="3" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>24</v>
       </c>
@@ -5011,10 +11619,10 @@
         <v>17</v>
       </c>
       <c r="G7" s="3">
-        <v>6.0</v>
-      </c>
-    </row>
-    <row r="8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>25</v>
       </c>
@@ -5028,7 +11636,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>26</v>
       </c>
@@ -5039,10 +11647,10 @@
         <v>17</v>
       </c>
       <c r="G9" s="3">
-        <v>20.0</v>
-      </c>
-    </row>
-    <row r="10">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>27</v>
       </c>
@@ -5056,7 +11664,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>28</v>
       </c>
@@ -5067,10 +11675,10 @@
         <v>17</v>
       </c>
       <c r="G11" s="3">
-        <v>20.0</v>
-      </c>
-    </row>
-    <row r="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>30</v>
       </c>
@@ -5081,10 +11689,10 @@
         <v>17</v>
       </c>
       <c r="G12" s="3">
-        <v>10.0</v>
-      </c>
-    </row>
-    <row r="13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>31</v>
       </c>
@@ -5098,7 +11706,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>32</v>
       </c>
@@ -5109,10 +11717,10 @@
         <v>17</v>
       </c>
       <c r="G14" s="3">
-        <v>6.0</v>
-      </c>
-    </row>
-    <row r="15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>33</v>
       </c>
@@ -5123,28 +11731,29 @@
         <v>17</v>
       </c>
       <c r="G15" s="3">
-        <v>15.0</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col customWidth="1" min="10" max="10" width="15.88"/>
+    <col min="10" max="10" width="15.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>4</v>
       </c>
@@ -5167,7 +11776,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>35</v>
       </c>
@@ -5178,7 +11787,7 @@
         <v>17</v>
       </c>
       <c r="G2" s="3">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="H2" s="3" t="s">
         <v>6</v>
@@ -5190,7 +11799,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>36</v>
       </c>
@@ -5201,13 +11810,13 @@
         <v>17</v>
       </c>
       <c r="G3" s="3">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="H3" s="3" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>37</v>
       </c>
@@ -5224,7 +11833,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>39</v>
       </c>
@@ -5235,13 +11844,13 @@
         <v>40</v>
       </c>
       <c r="G5" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="H5" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>41</v>
       </c>
@@ -5252,13 +11861,13 @@
         <v>17</v>
       </c>
       <c r="G6" s="3">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="H6" s="3" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>193</v>
       </c>
@@ -5271,16 +11880,16 @@
       <c r="G7" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="I7" s="5">
+      <c r="I7" s="3">
         <f>SUM(I3:I6)</f>
         <v>0</v>
       </c>
-      <c r="J7" s="5">
-        <f>sum(J3:J6)</f>
+      <c r="J7" s="3">
+        <f>SUM(J3:J6)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>43</v>
       </c>
@@ -5291,10 +11900,10 @@
         <v>17</v>
       </c>
       <c r="G8" s="3">
-        <v>15.0</v>
-      </c>
-    </row>
-    <row r="9">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>44</v>
       </c>
@@ -5308,7 +11917,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>45</v>
       </c>
@@ -5319,28 +11928,29 @@
         <v>17</v>
       </c>
       <c r="G10" s="3">
-        <v>10.0</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col customWidth="1" min="10" max="10" width="15.88"/>
+    <col min="10" max="10" width="15.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>4</v>
       </c>
@@ -5363,7 +11973,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>47</v>
       </c>
@@ -5374,7 +11984,7 @@
         <v>17</v>
       </c>
       <c r="G2" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="H2" s="3" t="s">
         <v>6</v>
@@ -5386,7 +11996,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>48</v>
       </c>
@@ -5400,7 +12010,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>49</v>
       </c>
@@ -5408,13 +12018,13 @@
         <v>17</v>
       </c>
       <c r="G4" s="3">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="H4" s="3" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>50</v>
       </c>
@@ -5428,7 +12038,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>51</v>
       </c>
@@ -5436,58 +12046,59 @@
         <v>192</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="I7" s="5">
+      <c r="I7" s="3">
         <f>SUM(I3:I6)</f>
         <v>0</v>
       </c>
-      <c r="J7" s="5">
-        <f>sum(J3:J6)</f>
+      <c r="J7" s="3">
+        <f>SUM(J3:J6)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>194</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col customWidth="1" min="10" max="10" width="15.88"/>
+    <col min="10" max="10" width="15.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>4</v>
       </c>
@@ -5510,7 +12121,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H2" s="3" t="s">
         <v>6</v>
       </c>
@@ -5521,60 +12132,61 @@
         <v>190</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H3" s="3" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H4" s="3" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H5" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H6" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H7" s="3" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="8">
-      <c r="I8" s="5">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I8" s="3">
         <f>SUM(I3:I7)</f>
         <v>0</v>
       </c>
-      <c r="J8" s="5">
-        <f>sum(J3:J7)</f>
+      <c r="J8" s="3">
+        <f>SUM(J3:J7)</f>
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col customWidth="1" min="10" max="10" width="15.88"/>
+    <col min="10" max="10" width="15.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>4</v>
       </c>
@@ -5597,7 +12209,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H2" s="3" t="s">
         <v>6</v>
       </c>
@@ -5608,60 +12220,61 @@
         <v>190</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H3" s="3" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H4" s="3" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H5" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H6" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H7" s="3" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="8">
-      <c r="I8" s="5">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I8" s="3">
         <f>SUM(I3:I7)</f>
         <v>0</v>
       </c>
-      <c r="J8" s="5">
-        <f>sum(J3:J7)</f>
+      <c r="J8" s="3">
+        <f>SUM(J3:J7)</f>
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col customWidth="1" min="10" max="10" width="15.88"/>
+    <col min="10" max="10" width="15.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>4</v>
       </c>
@@ -5684,7 +12297,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H2" s="3" t="s">
         <v>6</v>
       </c>
@@ -5695,42 +12308,42 @@
         <v>190</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H3" s="3" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H4" s="3" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H5" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H6" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H7" s="3" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="8">
-      <c r="I8" s="5">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I8" s="3">
         <f>SUM(I3:I7)</f>
         <v>0</v>
       </c>
-      <c r="J8" s="5">
-        <f>sum(J3:J7)</f>
+      <c r="J8" s="3">
+        <f>SUM(J3:J7)</f>
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>